--- a/pyexcel/stuscore.xlsx
+++ b/pyexcel/stuscore.xlsx
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:AK393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="J393" sqref="A381:J393"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="M406" sqref="A381:M406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -40682,6 +40682,16 @@
           <t>D+E</t>
         </is>
       </c>
+      <c r="J381" s="1" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="K381" s="1" t="inlineStr">
+        <is>
+          <t>ALL70</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -40713,6 +40723,12 @@
       <c r="I382" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="J382" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K382" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -40744,6 +40760,12 @@
       <c r="I383" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="J383" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K383" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -40775,6 +40797,12 @@
       <c r="I384" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="J384" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K384" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -40806,6 +40834,12 @@
       <c r="I385" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="J385" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K385" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -40837,6 +40871,12 @@
       <c r="I386" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="J386" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K386" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -40868,6 +40908,12 @@
       <c r="I387" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J387" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K387" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -40899,6 +40945,12 @@
       <c r="I388" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="J388" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K388" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -40930,6 +40982,12 @@
       <c r="I389" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J389" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K389" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -40961,6 +41019,12 @@
       <c r="I390" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J390" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K390" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -40992,6 +41056,12 @@
       <c r="I391" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J391" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K391" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -41023,6 +41093,12 @@
       <c r="I392" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J392" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="K392" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -41053,6 +41129,12 @@
       </c>
       <c r="I393" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="J393" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K393" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
